--- a/功能文档.xlsx
+++ b/功能文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\wpf\SmallTroupManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8895E7CF-11B8-429E-AC3B-9350FF561AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B26C670-3E3D-4B3C-8979-F8CE828025F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3630" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>功能名称</t>
   </si>
@@ -120,6 +120,14 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某一列，某一个单元格的界面表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.5.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,6 +653,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
